--- a/design_docs/Looms Feature Table.xlsx
+++ b/design_docs/Looms Feature Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\design_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290B8CE-1002-4921-A2A4-78C1DF7F505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EECA912-E440-4F67-804A-0FF2BD7BF6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB77C264-90D6-40E5-B359-2498144360DD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{EB77C264-90D6-40E5-B359-2498144360DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
